--- a/medicine/Handicap/Année_internationale_des_personnes_handicapées/Année_internationale_des_personnes_handicapées.xlsx
+++ b/medicine/Handicap/Année_internationale_des_personnes_handicapées/Année_internationale_des_personnes_handicapées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ann%C3%A9e_internationale_des_personnes_handicap%C3%A9es</t>
+          <t>Année_internationale_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'année 1981 a été déclarée « Année internationale des personnes handicapées » par la résolution 31/123 de l’Assemblée générale de l'Organisation des Nations unies en 1976, dont le thème était « pleine participation et égalité ». Il définit[Quoi ?] comme le droit des personnes handicapées à bénéficier de conditions de vie semblables aux autres citoyens, participer à la vie et au développement de la société et profiter des progrès liés au développement socio-économique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ann%C3%A9e_internationale_des_personnes_handicap%C3%A9es</t>
+          <t>Année_internationale_des_personnes_handicapées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>À cette occasion, elle a demandé un plan d’action aux niveaux régional, national et international visant à la prévention de l’infirmité, la réadaptation et l’égalisation des chances et il fut établi :
-le programme d’action mondial concernant les personnes handicapées[1], adopté par l'Assemblée générale de Organisation des Nations unies à sa trente-septième session, par sa résolution 37/52 du 3 décembre 1982 ;
-la déclaration Sundberg[2] adoptée par l'UNESCO lors de la conférence mondiale d'action et de stratégie pour l'éducation, la prévention et l’intégration, Malaga (Espagne) , 2 - 7 novembre 1981[3]</t>
+le programme d’action mondial concernant les personnes handicapées, adopté par l'Assemblée générale de Organisation des Nations unies à sa trente-septième session, par sa résolution 37/52 du 3 décembre 1982 ;
+la déclaration Sundberg adoptée par l'UNESCO lors de la conférence mondiale d'action et de stratégie pour l'éducation, la prévention et l’intégration, Malaga (Espagne) , 2 - 7 novembre 1981</t>
         </is>
       </c>
     </row>
